--- a/Section_21_Power_Query_Editor_in_Power_BI/PQE_Column_Distribution.xlsx
+++ b/Section_21_Power_Query_Editor_in_Power_BI/PQE_Column_Distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topna\OneDrive\Desktop\All\Edited Power BI Videos\Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiba\Documents\Data analysis - Udemy\Data_Analysis_Udemy\Section_21_Power_Query_Editor_in_Power_BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E34AE1-DC22-44D2-9CD9-DA7F70CC22DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE818F-C2C4-48BC-8647-39D2094165B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>Column1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -92,7 +89,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,72 +372,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
